--- a/biology/Botanique/Rayotte_de_Nommay/Rayotte_de_Nommay.xlsx
+++ b/biology/Botanique/Rayotte_de_Nommay/Rayotte_de_Nommay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rayotte de Nommay  est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rayotte.
-Château[1].</t>
+Château.</t>
         </is>
       </c>
     </row>
@@ -542,11 +556,13 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rayotte de Nommay est très cultivée dans le village de Nommay dont elle a gardé le nom. 
 Cette variété est un clone clair de la variété Gibeaume de Haute-Saône. Dans la Vallée du Rupt (région de Bart), il existe un autre clone de cette variété nettement plus coloré de rouge ...appelé Rougeotte. 
-Ces pommes sont de taille moyenne à petite. Elles ont fait l'objet d'un commerce important au marché d'Audincourt dans les années 1900[2].
+Ces pommes sont de taille moyenne à petite. Elles ont fait l'objet d'un commerce important au marché d'Audincourt dans les années 1900.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Le fruit</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces pommes possèdent une peau résistante, peu sensible à la tavelure.
 Ce sont d'excellentes pommes à couteau mais aussi à jus.
-Appréciation : se cuisine bien, excellente en tarte et cuite au four[3].
+Appréciation : se cuisine bien, excellente en tarte et cuite au four.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Résiste bien aux maladies et aux parasites.
 </t>
@@ -639,9 +659,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haute tige, arbre érigé avec ramure fine de vigueur moyenne. Fertilité bonne sans alternance[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haute tige, arbre érigé avec ramure fine de vigueur moyenne. Fertilité bonne sans alternance.
 </t>
         </is>
       </c>
